--- a/src/test/resources/ShopizerTestData.xlsx
+++ b/src/test/resources/ShopizerTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="290">
   <si>
     <t>admin account</t>
   </si>
@@ -40,6 +40,15 @@
     <t>Values</t>
   </si>
   <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>BillingAddress</t>
+  </si>
+  <si>
+    <t>User's name</t>
+  </si>
+  <si>
     <t>admin@shopizer.com</t>
   </si>
   <si>
@@ -85,7 +94,46 @@
     <t>Value 1</t>
   </si>
   <si>
-    <t>C:\\Users\\Anh Tu\\Downloads\\value.jpg</t>
+    <t>C:\Users\Anh Tu\Downloads\value.jpg</t>
+  </si>
+  <si>
+    <t>Ao thun chay bo Basic</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao1\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao1\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao1\anh3.jpg</t>
+  </si>
+  <si>
+    <t>QA Company</t>
+  </si>
+  <si>
+    <t>Rue du Calcaire, Quebec, Canada</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Q1234</t>
+  </si>
+  <si>
+    <t>0894758394</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Bui</t>
+  </si>
+  <si>
+    <t>tu1@gmail.com</t>
   </si>
   <si>
     <t>category2</t>
@@ -121,6 +169,30 @@
     <t>Value 2</t>
   </si>
   <si>
+    <t>product2</t>
+  </si>
+  <si>
+    <t>prada</t>
+  </si>
+  <si>
+    <t>Ao thun Gym Powerfit</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao2\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao2\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao2\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[2]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>tu2@gmail.com</t>
+  </si>
+  <si>
     <t>category3</t>
   </si>
   <si>
@@ -154,6 +226,30 @@
     <t>Value 3</t>
   </si>
   <si>
+    <t>product3</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>Ao thun Cotton Summer Coolwaves</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao3\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao3\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao3\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[3]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>tu3@gmail.com</t>
+  </si>
+  <si>
     <t>category4</t>
   </si>
   <si>
@@ -169,9 +265,6 @@
     <t>group4</t>
   </si>
   <si>
-    <t>prada</t>
-  </si>
-  <si>
     <t>Prada</t>
   </si>
   <si>
@@ -187,6 +280,30 @@
     <t>Value 4</t>
   </si>
   <si>
+    <t>product4</t>
+  </si>
+  <si>
+    <t>gucci</t>
+  </si>
+  <si>
+    <t>Ao sat nach the thao nam Dri-Breathe</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao4\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao4\anh3.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao4\anh1.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[4]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>tu4@gmail.com</t>
+  </si>
+  <si>
     <t>category5</t>
   </si>
   <si>
@@ -202,9 +319,6 @@
     <t>group5</t>
   </si>
   <si>
-    <t>hermes</t>
-  </si>
-  <si>
     <t>Hermes</t>
   </si>
   <si>
@@ -220,34 +334,556 @@
     <t>Value 5</t>
   </si>
   <si>
-    <t>gucci</t>
+    <t>product5</t>
+  </si>
+  <si>
+    <t>louisvuitton</t>
+  </si>
+  <si>
+    <t>Ao Polo the thao nam ProMax-S2</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao5\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao5\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao5\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[5]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>tu5@gmail.com</t>
   </si>
   <si>
     <t>Gucci</t>
   </si>
   <si>
-    <t>louisvuitton</t>
+    <t>product6</t>
+  </si>
+  <si>
+    <t>Ao thun tron Clean Vietnam</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao6\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao6\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao6\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[6]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
   </si>
   <si>
     <t>Louis Vuitton</t>
   </si>
   <si>
+    <t>product7</t>
+  </si>
+  <si>
+    <t>Ao the thao nam Coolmate Basics</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao7\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao7\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao7\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[7]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
     <t>burberry</t>
   </si>
   <si>
     <t>Burberry</t>
   </si>
   <si>
+    <t>product8</t>
+  </si>
+  <si>
+    <t>Ao so mi nam dai tay Cafe-DriS</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao8\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao8\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao8\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[8]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
     <t>fendi</t>
   </si>
   <si>
     <t>FENDI</t>
   </si>
   <si>
+    <t>product9</t>
+  </si>
+  <si>
+    <t>Ao Polo nam Woven Excool</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao9\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao9\anh3.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao9\anh1.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[9]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
     <t>givenchy</t>
   </si>
   <si>
     <t>Givenchy</t>
+  </si>
+  <si>
+    <t>product10</t>
+  </si>
+  <si>
+    <t>Ao Tank Top the thao nam Active V1</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao10\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao10\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ao10\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[10]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product11</t>
+  </si>
+  <si>
+    <t>Quan shorts nam di bien Coolwaves</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan1\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan1\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan1\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[11]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product12</t>
+  </si>
+  <si>
+    <t>Quan shorts nam the thao 7" V2</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan2\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan2\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan2\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[12]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product13</t>
+  </si>
+  <si>
+    <t>Quan dai Kaki Excool</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan3\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan3\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan3\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[13]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product14</t>
+  </si>
+  <si>
+    <t>Quan Jeans Clean Denim dang Regular S2</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan4\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan4\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan4\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[14]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product15</t>
+  </si>
+  <si>
+    <t>Quan short nam the thao Movement 7" co gian</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan5\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan5\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan5\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[15]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product16</t>
+  </si>
+  <si>
+    <t>Quan short nam the thao Movement 5"</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan6\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan6\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan6\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[16]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product17</t>
+  </si>
+  <si>
+    <t>Quan short nam the thao 7"</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan7\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan7\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan7\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[17]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product18</t>
+  </si>
+  <si>
+    <t>Quan short nam the thao 5" New Ultra</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan8\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan8\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan8\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[18]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product19</t>
+  </si>
+  <si>
+    <t>Quan nam Printed Short chong UV</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan9\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan9\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan9\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[19]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product20</t>
+  </si>
+  <si>
+    <t>Quan Jeans Clean Denim dang Slimfit S3</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan10\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan10\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\quan10\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[20]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product21</t>
+  </si>
+  <si>
+    <t>Combo 03 quan lot nam trunk Cotton Compact S2</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql1\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql1\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql1\anh3.jpg</t>
+  </si>
+  <si>
+    <t>/html[1]/body[1]/ngx-app[1]/div[1]/ngx-pages[1]/ngx-sample-layout[1]/nb-layout[1]/div[1]/div[1]/div[1]/div[1]/div[1]/nb-layout-column[1]/ngx-catalogue[1]/ngx-products[1]/div[1]/div[1]/ngx-products-list[1]/nb-card[1]/nb-card-body[1]/div[1]/ng2-smart-table[1]/table[1]/tbody[1]/tr[1]/td[8]/ng2-st-tbody-custom[1]/a[1]/i[1]</t>
+  </si>
+  <si>
+    <t>product22</t>
+  </si>
+  <si>
+    <t>Combo 03 quan lot nam Brief Coolmate Basics</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql2\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql2\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql2\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product23</t>
+  </si>
+  <si>
+    <t>Combo 3 quan lot nam Trunk Tencel</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql3\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql3\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql3\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product24</t>
+  </si>
+  <si>
+    <t>Combo 03 Quan lot Trunk Pima Cotton</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql4\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql4\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql4\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product25</t>
+  </si>
+  <si>
+    <t>Combo 3 Quan lot nam TRE EM Bamboo</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql5\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql5\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql5\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product26</t>
+  </si>
+  <si>
+    <t>Combo 3 Quan lot Trunk nam khu mui Anti-Smell</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql6\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql6\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql6\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product27</t>
+  </si>
+  <si>
+    <t>Combo 03 quan lot nam Trunk Coolmate Basics</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql7\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql7\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql7\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product28</t>
+  </si>
+  <si>
+    <t>Combo 3 Quan lot Brief vai Cotton Modal</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql8\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql8\anh2.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql8\anh3.jpg</t>
+  </si>
+  <si>
+    <t>product29</t>
+  </si>
+  <si>
+    <t>Combo 05 Quan lot nam Trunk Cotton Compact</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql9\anh1.jpg</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql9\anh2.jpg</t>
+  </si>
+  <si>
+    <t>product30</t>
+  </si>
+  <si>
+    <t>Combo 03 Quan lot nam Trunk Bamboo S2</t>
+  </si>
+  <si>
+    <t>D:\H\Products\ql10\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product31</t>
+  </si>
+  <si>
+    <t>Combo 4 tat/vo luoi cotton chong truot</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk1\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product32</t>
+  </si>
+  <si>
+    <t>Gang tay da nang chong tia UV</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk2\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product33</t>
+  </si>
+  <si>
+    <t>Mu/Non luoi trai nam Classic Cap theu logo Coolmate</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk3\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product34</t>
+  </si>
+  <si>
+    <t>Mu/Non luoi trai nam Tech Cap theu logo Coolmate</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk4\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product35</t>
+  </si>
+  <si>
+    <t>Combo 03 Tat co ngan Cotton Supima</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk5\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product36</t>
+  </si>
+  <si>
+    <t>Coolmate x Copper Denim | Mu Dadcap Jeans</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk6\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product37</t>
+  </si>
+  <si>
+    <t>Combo 2 doi tat/vo co trung Care &amp; Share Cotton thoang khi</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk7\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product38</t>
+  </si>
+  <si>
+    <t>Combo 3 doi tat/vo co dai Cotton Solid Casual</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk8\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product39</t>
+  </si>
+  <si>
+    <t>Combo 4 tat/vo co ngan Cotton thoang khi</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk9\anh1.jpg</t>
+  </si>
+  <si>
+    <t>product40</t>
+  </si>
+  <si>
+    <t>Tat the thao co dai chong truot</t>
+  </si>
+  <si>
+    <t>D:\H\Products\pk10\anh1.jpg</t>
   </si>
 </sst>
 </file>
@@ -255,10 +891,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -274,8 +910,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,33 +962,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,16 +977,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -351,6 +994,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -359,16 +1010,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +1032,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,23 +1046,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,7 +1063,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +1111,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,43 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +1171,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,25 +1213,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,43 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,21 +1254,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,6 +1305,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -698,182 +1354,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1194,10 +1836,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:IP300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="Z20" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7272727272727" defaultRowHeight="15.5"/>
@@ -1214,371 +1856,2745 @@
     <col min="11" max="11" width="6.45454545454545" style="1" customWidth="1"/>
     <col min="12" max="16" width="21.7272727272727" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.45454545454545" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="21.7272727272727" style="1" customWidth="1"/>
+    <col min="18" max="26" width="21.7272727272727" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.72727272727273" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.8181818181818" style="1" customWidth="1"/>
+    <col min="30" max="33" width="21.7272727272727" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.0909090909091" style="1" customWidth="1"/>
+    <col min="35" max="35" width="25.7272727272727" style="1" customWidth="1"/>
+    <col min="36" max="36" width="26" style="1" customWidth="1"/>
+    <col min="37" max="37" width="21.7272727272727" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="21.7272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:48">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AN1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV1" s="3"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" ht="46.5" spans="1:48">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>23</v>
+      <c r="AC2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="5:24">
+    <row r="3" spans="3:38">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>125000</v>
       </c>
     </row>
-    <row r="4" spans="5:24">
+    <row r="4" ht="31" spans="3:38">
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="5:24">
+    <row r="5" ht="31" spans="3:38">
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>175000</v>
       </c>
     </row>
-    <row r="6" spans="5:24">
+    <row r="6" ht="31" spans="3:38">
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="16:19">
+    <row r="7" ht="31" spans="3:38">
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="P7" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="16:19">
+    <row r="8" ht="31" spans="16:38">
       <c r="P8" s="1" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="16:19">
+    <row r="9" ht="31" spans="16:38">
       <c r="P9" s="1" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>150000</v>
       </c>
     </row>
-    <row r="10" spans="16:19">
+    <row r="10" ht="31" spans="16:38">
       <c r="P10" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>75</v>
+        <v>137</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>175000</v>
       </c>
     </row>
-    <row r="11" spans="16:19">
+    <row r="11" ht="31" spans="16:38">
       <c r="P11" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" ht="31" spans="26:38">
+      <c r="Z12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" ht="31" spans="26:38">
+      <c r="Z13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="14" ht="31" spans="26:38">
+      <c r="Z14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" ht="31" spans="26:38">
+      <c r="Z15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="16" ht="46.5" spans="26:38">
+      <c r="Z16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="17" ht="31" spans="26:38">
+      <c r="Z17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" ht="31" spans="26:38">
+      <c r="Z18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="19" ht="31" spans="26:38">
+      <c r="Z19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="20" ht="31" spans="26:38">
+      <c r="Z20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="21" ht="31" spans="26:38">
+      <c r="Z21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" ht="46.5" spans="26:38">
+      <c r="Z22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" ht="31" spans="26:38">
+      <c r="Z23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="24" ht="31" spans="26:38">
+      <c r="Z24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="25" ht="31" spans="26:38">
+      <c r="Z25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="26" ht="31" spans="26:38">
+      <c r="Z26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="27" ht="46.5" spans="26:38">
+      <c r="Z27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" ht="31" spans="26:38">
+      <c r="Z28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="29" ht="31" spans="26:38">
+      <c r="Z29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="30" ht="46.5" spans="26:38">
+      <c r="Z30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="31" ht="31" spans="26:38">
+      <c r="Z31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="32" ht="31" spans="26:38">
+      <c r="Z32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" ht="31" spans="26:38">
+      <c r="Z33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="34" ht="46.5" spans="26:38">
+      <c r="Z34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>33</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" ht="46.5" spans="26:38">
+      <c r="Z35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="36" ht="31" spans="26:38">
+      <c r="Z36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="37" ht="46.5" spans="26:38">
+      <c r="Z37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>36</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" ht="46.5" spans="26:38">
+      <c r="Z38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>125000</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="39" ht="31" spans="26:38">
+      <c r="Z39" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>38</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="40" ht="31" spans="26:38">
+      <c r="Z40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>39</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>175000</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="41" ht="31" spans="26:38">
+      <c r="Z41" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>200000</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:250">
+      <c r="A300" s="1">
+        <v>0</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1">
+        <v>2</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1">
+        <v>4</v>
+      </c>
+      <c r="F300" s="1">
+        <v>5</v>
+      </c>
+      <c r="G300" s="1">
+        <v>6</v>
+      </c>
+      <c r="H300" s="1">
+        <v>7</v>
+      </c>
+      <c r="I300" s="1">
+        <v>8</v>
+      </c>
+      <c r="J300" s="1">
+        <v>9</v>
+      </c>
+      <c r="K300" s="1">
+        <v>10</v>
+      </c>
+      <c r="L300" s="1">
+        <v>11</v>
+      </c>
+      <c r="M300" s="1">
+        <v>12</v>
+      </c>
+      <c r="N300" s="1">
+        <v>13</v>
+      </c>
+      <c r="O300" s="1">
+        <v>14</v>
+      </c>
+      <c r="P300" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q300" s="1">
+        <v>16</v>
+      </c>
+      <c r="R300" s="1">
+        <v>17</v>
+      </c>
+      <c r="S300" s="1">
+        <v>18</v>
+      </c>
+      <c r="T300" s="1">
+        <v>19</v>
+      </c>
+      <c r="U300" s="1">
+        <v>20</v>
+      </c>
+      <c r="V300" s="1">
+        <v>21</v>
+      </c>
+      <c r="W300" s="1">
+        <v>22</v>
+      </c>
+      <c r="X300" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y300" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z300" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA300" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB300" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC300" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD300" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE300" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF300" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG300" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH300" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI300" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ300" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK300" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL300" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM300" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN300" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO300" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP300" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ300" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR300" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS300" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT300" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU300" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV300" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW300" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX300" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY300" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ300" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA300" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB300" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC300" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD300" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE300" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF300" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG300" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH300" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI300" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ300" s="1">
+        <v>61</v>
+      </c>
+      <c r="BK300" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL300" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM300" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN300" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO300" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP300" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ300" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR300" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS300" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT300" s="1">
+        <v>71</v>
+      </c>
+      <c r="BU300" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV300" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW300" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX300" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY300" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ300" s="1">
         <v>77</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>77</v>
+      <c r="CA300" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB300" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC300" s="1">
+        <v>80</v>
+      </c>
+      <c r="CD300" s="1">
+        <v>81</v>
+      </c>
+      <c r="CE300" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF300" s="1">
+        <v>83</v>
+      </c>
+      <c r="CG300" s="1">
+        <v>84</v>
+      </c>
+      <c r="CH300" s="1">
+        <v>85</v>
+      </c>
+      <c r="CI300" s="1">
+        <v>86</v>
+      </c>
+      <c r="CJ300" s="1">
+        <v>87</v>
+      </c>
+      <c r="CK300" s="1">
+        <v>88</v>
+      </c>
+      <c r="CL300" s="1">
+        <v>89</v>
+      </c>
+      <c r="CM300" s="1">
+        <v>90</v>
+      </c>
+      <c r="CN300" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO300" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP300" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ300" s="1">
+        <v>94</v>
+      </c>
+      <c r="CR300" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS300" s="1">
+        <v>96</v>
+      </c>
+      <c r="CT300" s="1">
+        <v>97</v>
+      </c>
+      <c r="CU300" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV300" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW300" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX300" s="1">
+        <v>101</v>
+      </c>
+      <c r="CY300" s="1">
+        <v>102</v>
+      </c>
+      <c r="CZ300" s="1">
+        <v>103</v>
+      </c>
+      <c r="DA300" s="1">
+        <v>104</v>
+      </c>
+      <c r="DB300" s="1">
+        <v>105</v>
+      </c>
+      <c r="DC300" s="1">
+        <v>106</v>
+      </c>
+      <c r="DD300" s="1">
+        <v>107</v>
+      </c>
+      <c r="DE300" s="1">
+        <v>108</v>
+      </c>
+      <c r="DF300" s="1">
+        <v>109</v>
+      </c>
+      <c r="DG300" s="1">
+        <v>110</v>
+      </c>
+      <c r="DH300" s="1">
+        <v>111</v>
+      </c>
+      <c r="DI300" s="1">
+        <v>112</v>
+      </c>
+      <c r="DJ300" s="1">
+        <v>113</v>
+      </c>
+      <c r="DK300" s="1">
+        <v>114</v>
+      </c>
+      <c r="DL300" s="1">
+        <v>115</v>
+      </c>
+      <c r="DM300" s="1">
+        <v>116</v>
+      </c>
+      <c r="DN300" s="1">
+        <v>117</v>
+      </c>
+      <c r="DO300" s="1">
+        <v>118</v>
+      </c>
+      <c r="DP300" s="1">
+        <v>119</v>
+      </c>
+      <c r="DQ300" s="1">
+        <v>120</v>
+      </c>
+      <c r="DR300" s="1">
+        <v>121</v>
+      </c>
+      <c r="DS300" s="1">
+        <v>122</v>
+      </c>
+      <c r="DT300" s="1">
+        <v>123</v>
+      </c>
+      <c r="DU300" s="1">
+        <v>124</v>
+      </c>
+      <c r="DV300" s="1">
+        <v>125</v>
+      </c>
+      <c r="DW300" s="1">
+        <v>126</v>
+      </c>
+      <c r="DX300" s="1">
+        <v>127</v>
+      </c>
+      <c r="DY300" s="1">
+        <v>128</v>
+      </c>
+      <c r="DZ300" s="1">
+        <v>129</v>
+      </c>
+      <c r="EA300" s="1">
+        <v>130</v>
+      </c>
+      <c r="EB300" s="1">
+        <v>131</v>
+      </c>
+      <c r="EC300" s="1">
+        <v>132</v>
+      </c>
+      <c r="ED300" s="1">
+        <v>133</v>
+      </c>
+      <c r="EE300" s="1">
+        <v>134</v>
+      </c>
+      <c r="EF300" s="1">
+        <v>135</v>
+      </c>
+      <c r="EG300" s="1">
+        <v>136</v>
+      </c>
+      <c r="EH300" s="1">
+        <v>137</v>
+      </c>
+      <c r="EI300" s="1">
+        <v>138</v>
+      </c>
+      <c r="EJ300" s="1">
+        <v>139</v>
+      </c>
+      <c r="EK300" s="1">
+        <v>140</v>
+      </c>
+      <c r="EL300" s="1">
+        <v>141</v>
+      </c>
+      <c r="EM300" s="1">
+        <v>142</v>
+      </c>
+      <c r="EN300" s="1">
+        <v>143</v>
+      </c>
+      <c r="EO300" s="1">
+        <v>144</v>
+      </c>
+      <c r="EP300" s="1">
+        <v>145</v>
+      </c>
+      <c r="EQ300" s="1">
+        <v>146</v>
+      </c>
+      <c r="ER300" s="1">
+        <v>147</v>
+      </c>
+      <c r="ES300" s="1">
+        <v>148</v>
+      </c>
+      <c r="ET300" s="1">
+        <v>149</v>
+      </c>
+      <c r="EU300" s="1">
+        <v>150</v>
+      </c>
+      <c r="EV300" s="1">
+        <v>151</v>
+      </c>
+      <c r="EW300" s="1">
+        <v>152</v>
+      </c>
+      <c r="EX300" s="1">
+        <v>153</v>
+      </c>
+      <c r="EY300" s="1">
+        <v>154</v>
+      </c>
+      <c r="EZ300" s="1">
+        <v>155</v>
+      </c>
+      <c r="FA300" s="1">
+        <v>156</v>
+      </c>
+      <c r="FB300" s="1">
+        <v>157</v>
+      </c>
+      <c r="FC300" s="1">
+        <v>158</v>
+      </c>
+      <c r="FD300" s="1">
+        <v>159</v>
+      </c>
+      <c r="FE300" s="1">
+        <v>160</v>
+      </c>
+      <c r="FF300" s="1">
+        <v>161</v>
+      </c>
+      <c r="FG300" s="1">
+        <v>162</v>
+      </c>
+      <c r="FH300" s="1">
+        <v>163</v>
+      </c>
+      <c r="FI300" s="1">
+        <v>164</v>
+      </c>
+      <c r="FJ300" s="1">
+        <v>165</v>
+      </c>
+      <c r="FK300" s="1">
+        <v>166</v>
+      </c>
+      <c r="FL300" s="1">
+        <v>167</v>
+      </c>
+      <c r="FM300" s="1">
+        <v>168</v>
+      </c>
+      <c r="FN300" s="1">
+        <v>169</v>
+      </c>
+      <c r="FO300" s="1">
+        <v>170</v>
+      </c>
+      <c r="FP300" s="1">
+        <v>171</v>
+      </c>
+      <c r="FQ300" s="1">
+        <v>172</v>
+      </c>
+      <c r="FR300" s="1">
+        <v>173</v>
+      </c>
+      <c r="FS300" s="1">
+        <v>174</v>
+      </c>
+      <c r="FT300" s="1">
+        <v>175</v>
+      </c>
+      <c r="FU300" s="1">
+        <v>176</v>
+      </c>
+      <c r="FV300" s="1">
+        <v>177</v>
+      </c>
+      <c r="FW300" s="1">
+        <v>178</v>
+      </c>
+      <c r="FX300" s="1">
+        <v>179</v>
+      </c>
+      <c r="FY300" s="1">
+        <v>180</v>
+      </c>
+      <c r="FZ300" s="1">
+        <v>181</v>
+      </c>
+      <c r="GA300" s="1">
+        <v>182</v>
+      </c>
+      <c r="GB300" s="1">
+        <v>183</v>
+      </c>
+      <c r="GC300" s="1">
+        <v>184</v>
+      </c>
+      <c r="GD300" s="1">
+        <v>185</v>
+      </c>
+      <c r="GE300" s="1">
+        <v>186</v>
+      </c>
+      <c r="GF300" s="1">
+        <v>187</v>
+      </c>
+      <c r="GG300" s="1">
+        <v>188</v>
+      </c>
+      <c r="GH300" s="1">
+        <v>189</v>
+      </c>
+      <c r="GI300" s="1">
+        <v>190</v>
+      </c>
+      <c r="GJ300" s="1">
+        <v>191</v>
+      </c>
+      <c r="GK300" s="1">
+        <v>192</v>
+      </c>
+      <c r="GL300" s="1">
+        <v>193</v>
+      </c>
+      <c r="GM300" s="1">
+        <v>194</v>
+      </c>
+      <c r="GN300" s="1">
+        <v>195</v>
+      </c>
+      <c r="GO300" s="1">
+        <v>196</v>
+      </c>
+      <c r="GP300" s="1">
+        <v>197</v>
+      </c>
+      <c r="GQ300" s="1">
+        <v>198</v>
+      </c>
+      <c r="GR300" s="1">
+        <v>199</v>
+      </c>
+      <c r="GS300" s="1">
+        <v>200</v>
+      </c>
+      <c r="GT300" s="1">
+        <v>201</v>
+      </c>
+      <c r="GU300" s="1">
+        <v>202</v>
+      </c>
+      <c r="GV300" s="1">
+        <v>203</v>
+      </c>
+      <c r="GW300" s="1">
+        <v>204</v>
+      </c>
+      <c r="GX300" s="1">
+        <v>205</v>
+      </c>
+      <c r="GY300" s="1">
+        <v>206</v>
+      </c>
+      <c r="GZ300" s="1">
+        <v>207</v>
+      </c>
+      <c r="HA300" s="1">
+        <v>208</v>
+      </c>
+      <c r="HB300" s="1">
+        <v>209</v>
+      </c>
+      <c r="HC300" s="1">
+        <v>210</v>
+      </c>
+      <c r="HD300" s="1">
+        <v>211</v>
+      </c>
+      <c r="HE300" s="1">
+        <v>212</v>
+      </c>
+      <c r="HF300" s="1">
+        <v>213</v>
+      </c>
+      <c r="HG300" s="1">
+        <v>214</v>
+      </c>
+      <c r="HH300" s="1">
+        <v>215</v>
+      </c>
+      <c r="HI300" s="1">
+        <v>216</v>
+      </c>
+      <c r="HJ300" s="1">
+        <v>217</v>
+      </c>
+      <c r="HK300" s="1">
+        <v>218</v>
+      </c>
+      <c r="HL300" s="1">
+        <v>219</v>
+      </c>
+      <c r="HM300" s="1">
+        <v>220</v>
+      </c>
+      <c r="HN300" s="1">
+        <v>221</v>
+      </c>
+      <c r="HO300" s="1">
+        <v>222</v>
+      </c>
+      <c r="HP300" s="1">
+        <v>223</v>
+      </c>
+      <c r="HQ300" s="1">
+        <v>224</v>
+      </c>
+      <c r="HR300" s="1">
+        <v>225</v>
+      </c>
+      <c r="HS300" s="1">
+        <v>226</v>
+      </c>
+      <c r="HT300" s="1">
+        <v>227</v>
+      </c>
+      <c r="HU300" s="1">
+        <v>228</v>
+      </c>
+      <c r="HV300" s="1">
+        <v>229</v>
+      </c>
+      <c r="HW300" s="1">
+        <v>230</v>
+      </c>
+      <c r="HX300" s="1">
+        <v>231</v>
+      </c>
+      <c r="HY300" s="1">
+        <v>232</v>
+      </c>
+      <c r="HZ300" s="1">
+        <v>233</v>
+      </c>
+      <c r="IA300" s="1">
+        <v>234</v>
+      </c>
+      <c r="IB300" s="1">
+        <v>235</v>
+      </c>
+      <c r="IC300" s="1">
+        <v>236</v>
+      </c>
+      <c r="ID300" s="1">
+        <v>237</v>
+      </c>
+      <c r="IE300" s="1">
+        <v>238</v>
+      </c>
+      <c r="IF300" s="1">
+        <v>239</v>
+      </c>
+      <c r="IG300" s="1">
+        <v>240</v>
+      </c>
+      <c r="IH300" s="1">
+        <v>241</v>
+      </c>
+      <c r="II300" s="1">
+        <v>242</v>
+      </c>
+      <c r="IJ300" s="1">
+        <v>243</v>
+      </c>
+      <c r="IK300" s="1">
+        <v>244</v>
+      </c>
+      <c r="IL300" s="1">
+        <v>245</v>
+      </c>
+      <c r="IM300" s="1">
+        <v>246</v>
+      </c>
+      <c r="IN300" s="1">
+        <v>247</v>
+      </c>
+      <c r="IO300" s="1">
+        <v>248</v>
+      </c>
+      <c r="IP300" s="1">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
@@ -1586,9 +4602,16 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AU1:AV1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="tu@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="tu1@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="tu2@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="tu3@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="tu4@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="tu5@gmail.com" tooltip="mailto:tu5@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
